--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lojaototalcombr-my.sharepoint.com/personal/kaua_reis_lojaototal_com_br/Documents/Tecnopampa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{B5FCAECF-2BBA-4A9F-9E8A-CFD0A3B2B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AD6E66-3DEE-4A79-AA06-31C513F9B0C9}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{B5FCAECF-2BBA-4A9F-9E8A-CFD0A3B2B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF82520E-DC11-E44F-8A03-0C32A39D73DE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,7 +900,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>2.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C3" s="1">
         <v>1.6</v>
